--- a/nodes_source_analyses/energy/energy_hydrogen_storage.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B510DF-E823-FF48-9F9B-78F0EEA91F3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FAA4B-28F5-7E46-8A97-D88EB0135A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>Source</t>
   </si>
@@ -399,6 +405,9 @@
   </si>
   <si>
     <t xml:space="preserve">      decommissioning_costs</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1125,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1294,6 +1303,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1321,21 +1345,7 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="250">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2271,12 +2281,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="20"/>
+    <col min="1" max="1" width="3.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1">
@@ -2450,23 +2460,23 @@
   </sheetPr>
   <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2477,39 +2487,39 @@
       <c r="H1" s="34"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -2609,7 +2619,7 @@
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="38"/>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="121" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -2739,13 +2749,17 @@
       <c r="D20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="37"/>
-      <c r="I20" s="109"/>
+      <c r="I20" s="133" t="s">
+        <v>116</v>
+      </c>
       <c r="J20" s="68"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
@@ -2872,21 +2886,21 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="76" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="76" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="76" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="76" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="76" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="76" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="76" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="76" customWidth="1"/>
     <col min="8" max="8" width="3" style="76" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="76" customWidth="1"/>
-    <col min="11" max="11" width="2.83203125" style="76" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="76" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="76" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="76" customWidth="1"/>
     <col min="12" max="12" width="58" style="76" customWidth="1"/>
-    <col min="13" max="16384" width="10.6640625" style="76"/>
+    <col min="13" max="16384" width="10.7109375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -2979,7 +2993,7 @@
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="117" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="86">
@@ -2989,19 +3003,19 @@
     </row>
     <row r="8" spans="2:12" ht="16" customHeight="1" thickBot="1">
       <c r="B8" s="82"/>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="116" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="118">
         <f>I8</f>
         <v>3.4</v>
       </c>
-      <c r="I8" s="131">
+      <c r="I8" s="122">
         <f>Notes!E7</f>
         <v>3.4</v>
       </c>
@@ -3134,7 +3148,7 @@
     </row>
     <row r="17" spans="2:12" ht="17" thickBot="1">
       <c r="B17" s="82"/>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="121" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="13"/>
@@ -3209,22 +3223,22 @@
   </sheetPr>
   <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="46" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="62" customWidth="1"/>
     <col min="9" max="9" width="33" style="62" customWidth="1"/>
-    <col min="10" max="10" width="103.5" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="46"/>
+    <col min="10" max="10" width="103.42578125" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -3303,16 +3317,16 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="45"/>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="120">
         <v>43040</v>
       </c>
       <c r="G7" s="51">
@@ -3320,7 +3334,7 @@
       </c>
       <c r="H7" s="66"/>
       <c r="I7" s="107"/>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="123" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3370,7 +3384,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="45"/>
       <c r="C12" s="51"/>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="119" t="s">
         <v>105</v>
       </c>
       <c r="E12" s="51"/>
@@ -3440,7 +3454,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="45"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="119" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="51"/>
@@ -3559,13 +3573,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="76" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="76"/>
-    <col min="4" max="4" width="15.1640625" style="76" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="76"/>
+    <col min="1" max="1" width="5.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="76"/>
+    <col min="4" max="4" width="15.140625" style="76" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
@@ -3647,13 +3661,13 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="82"/>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="115" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="76">
         <v>3.4</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="115" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="75"/>
@@ -3801,27 +3815,27 @@
       <c r="H24" s="75"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
-      <c r="K24" s="128">
+      <c r="K24" s="119">
         <v>1.1091</v>
       </c>
-      <c r="L24" s="128" t="s">
+      <c r="L24" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="128" t="s">
+      <c r="M24" s="119" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="82"/>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="119" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="75"/>
-      <c r="E25" s="128">
+      <c r="E25" s="119">
         <f>289/702720</f>
         <v>4.1125910746812384E-4</v>
       </c>
-      <c r="F25" s="128" t="s">
+      <c r="F25" s="119" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="75"/>
@@ -3834,14 +3848,14 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="82"/>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="115" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="76">
         <f>77/3892</f>
         <v>1.9784172661870502E-2</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="119" t="s">
         <v>107</v>
       </c>
       <c r="K26" s="75"/>
@@ -3850,14 +3864,14 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="82"/>
-      <c r="C27" s="124" t="s">
+      <c r="C27" s="115" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="76">
         <f>E25*K24*1000000</f>
         <v>456.12747609289613</v>
       </c>
-      <c r="F27" s="128" t="s">
+      <c r="F27" s="119" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="75"/>
@@ -3870,7 +3884,7 @@
         <f>E27/1000</f>
         <v>0.45612747609289611</v>
       </c>
-      <c r="F28" s="124" t="s">
+      <c r="F28" s="115" t="s">
         <v>103</v>
       </c>
       <c r="K28" s="75"/>
@@ -3900,13 +3914,13 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="82"/>
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="115" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="76">
         <v>40</v>
       </c>
-      <c r="F32" s="124" t="s">
+      <c r="F32" s="115" t="s">
         <v>1</v>
       </c>
       <c r="K32" s="75"/>
@@ -3921,7 +3935,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="82"/>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="115" t="s">
         <v>109</v>
       </c>
       <c r="K34" s="75"/>
@@ -3934,7 +3948,7 @@
         <f>0.05*E27/40</f>
         <v>0.57015934511612021</v>
       </c>
-      <c r="F35" s="124" t="s">
+      <c r="F35" s="115" t="s">
         <v>108</v>
       </c>
       <c r="K35" s="75"/>
@@ -3955,13 +3969,13 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="82"/>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="115" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="76">
         <v>1</v>
       </c>
-      <c r="F38" s="124" t="s">
+      <c r="F38" s="115" t="s">
         <v>111</v>
       </c>
       <c r="K38" s="75"/>
@@ -3970,13 +3984,13 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="82"/>
-      <c r="C39" s="124" t="s">
+      <c r="C39" s="115" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="76">
         <v>30</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F39" s="115" t="s">
         <v>112</v>
       </c>
       <c r="K39" s="75"/>
